--- a/biology/Neurosciences/Floride_(film)/Floride_(film).xlsx
+++ b/biology/Neurosciences/Floride_(film)/Floride_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Floride est un film français coécrit et réalisé par Philippe Le Guay, sorti en 2015. Il s'agit de la première adaptation de la pièce de théâtre Le Père de Florian Zeller (2012), et du dernier rôle de Jean Rochefort au cinéma.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À 82 ans, Claude Lherminier (Jean Rochefort), qui fut autrefois un grand industriel dans le papier, mène la vie dure à ses gouvernantes successives. Il leur fait acheter du jus d'orange de Floride, car c'est là que vit sa fille Alice. Or celle-ci est morte, il y a neuf ans, dans un accident de voiture. Carole, la fille aînée (Sandrine Kiberlain), ne veut pas rappeler ce drame à son père, qui a tous les signes de la maladie d'Alzheimer : il ne le supporterait pas. Carole, qui a repris l'affaire familiale avec brio, tente de refaire sa vie avec Thomas (Laurent Lucas). Mais c'est difficile, car il faut continuer de s'occuper de son père, qui souffre d'absences réelles ou feintes à répétition. Le film débute par une séquence de Claude Lherminier dans un avion en route vers la Floride – séquence qui sera rémanente durant la durée du film – mais est-ce la réalité ou le rêve du vieux monsieur ?
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données d'Unifrance.
 Titre français : Floride
@@ -596,7 +612,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Jean Rochefort : Claude Lherminier
@@ -646,9 +664,11 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le tournage a lieu en Haute-Savoie et autour d'Annecy, entre le 16 septembre et le 24 octobre 2014[1] ; la cartonnerie Cascades est située à La Rochette, commune déléguée dans la commune nouvelle de Valgelon-La Rochette. Les scènes de plage sont réalisées sur la plage de Talloires-Montmin.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage a lieu en Haute-Savoie et autour d'Annecy, entre le 16 septembre et le 24 octobre 2014 ; la cartonnerie Cascades est située à La Rochette, commune déléguée dans la commune nouvelle de Valgelon-La Rochette. Les scènes de plage sont réalisées sur la plage de Talloires-Montmin.
 La chanson du film, Puisque vous partez en voyage, est interprétée par Sandrine Kiberlain et Jean Rochefort.
 </t>
         </is>
